--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FB9A64DD68D58C2AF51AFCBF54B367B28F2E8677" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CEF949E-9729-4D54-BF64-EBF19318E460}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="13620" tabRatio="670"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="670" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,15 @@
     <sheet name="BDEQ-BDESC-rural-residential" sheetId="10" r:id="rId9"/>
     <sheet name="BDEQ-BDESC-commercial" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1612,7 +1621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2025,16 +2034,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="9"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: top rows" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2125,6 +2134,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2160,6 +2186,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2335,10 +2378,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4455,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12716,7 +12759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19757,7 +19800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24895,132 +24938,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>461</v>
       </c>
       <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2020</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2021</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2022</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2023</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2024</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2025</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2026</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2027</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2028</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2029</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2030</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2031</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2032</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2033</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2034</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2035</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2036</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2037</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2038</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2039</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2040</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2041</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2042</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2043</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2044</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2045</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2046</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2047</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2048</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2049</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="47">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="C2" s="47">
@@ -25122,13 +25171,16 @@
       <c r="AI2" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
       <c r="B3" s="47">
-        <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <f t="shared" ref="B3:B17" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="C3" s="47">
@@ -25189,86 +25241,91 @@
       </c>
       <c r="Q3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>0.5824610829103215</v>
+        <v>0</v>
       </c>
       <c r="R3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>2.0983020304568525</v>
+        <v>0.5824610829103215</v>
       </c>
       <c r="S3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>5.9447884940778346</v>
+        <v>2.0983020304568525</v>
       </c>
       <c r="T3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>14.337996615905242</v>
+        <v>5.9447884940778346</v>
       </c>
       <c r="U3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>29.609373096446696</v>
+        <v>14.337996615905242</v>
       </c>
       <c r="V3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>57.004272419627753</v>
+        <v>29.609373096446696</v>
       </c>
       <c r="W3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>107.47969289340099</v>
+        <v>57.004272419627753</v>
       </c>
       <c r="X3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>198.63925888324874</v>
+        <v>107.47969289340099</v>
       </c>
       <c r="Y3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>366.27027664974617</v>
+        <v>198.63925888324874</v>
       </c>
       <c r="Z3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>672.62237309644672</v>
+        <v>366.27027664974617</v>
       </c>
       <c r="AA3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>979.32378595600676</v>
+        <v>672.62237309644672</v>
       </c>
       <c r="AB3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>1288.7075642978002</v>
+        <v>979.32378595600676</v>
       </c>
       <c r="AC3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>1601.1214221658206</v>
+        <v>1288.7075642978002</v>
       </c>
       <c r="AD3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>1916.5661607445008</v>
+        <v>1601.1214221658206</v>
       </c>
       <c r="AE3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>2234.4585177664972</v>
+        <v>1916.5661607445008</v>
       </c>
       <c r="AF3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>2554.4499780033839</v>
+        <v>2234.4585177664972</v>
       </c>
       <c r="AG3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>2875.3732157360409</v>
+        <v>2554.4499780033839</v>
       </c>
       <c r="AH3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>3197.6961226734347</v>
+        <v>2875.3732157360409</v>
       </c>
       <c r="AI3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <v>3197.6961226734347</v>
+      </c>
+      <c r="AJ3" s="47">
+        <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
         <v>3521.1839517766498</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="47">
@@ -25370,12 +25427,16 @@
       <c r="AI4" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="47">
@@ -25477,30 +25538,33 @@
       <c r="AI5" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
       <c r="B6" s="47">
-        <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <f t="shared" si="0"/>
         <v>28150.374582064294</v>
       </c>
       <c r="C6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>28710.706149746191</v>
+        <v>28150.374582064294</v>
       </c>
       <c r="D6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>29286.151260575294</v>
+        <v>28710.706149746191</v>
       </c>
       <c r="E6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>29793.957176818953</v>
+        <v>29286.151260575294</v>
       </c>
       <c r="F6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>30232.813961928932</v>
+        <v>29793.957176818953</v>
       </c>
       <c r="G6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
@@ -25532,239 +25596,248 @@
       </c>
       <c r="N6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>30235.10374703892</v>
+        <v>30232.813961928932</v>
       </c>
       <c r="O6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>30243.569061759732</v>
+        <v>30235.10374703892</v>
       </c>
       <c r="P6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>30275.058013536374</v>
+        <v>30243.569061759732</v>
       </c>
       <c r="Q6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>38226.054791032147</v>
+        <v>30275.058013536374</v>
       </c>
       <c r="R6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>48230.961571912012</v>
+        <v>38226.054791032147</v>
       </c>
       <c r="S6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>59684.474703891712</v>
+        <v>48230.961571912012</v>
       </c>
       <c r="T6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>72195.12105160745</v>
+        <v>59684.474703891712</v>
       </c>
       <c r="U6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>85746.147848561755</v>
+        <v>72195.12105160745</v>
       </c>
       <c r="V6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>100119.92456006768</v>
+        <v>85746.147848561755</v>
       </c>
       <c r="W6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>115096.74077664973</v>
+        <v>100119.92456006768</v>
       </c>
       <c r="X6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>130567.63461421321</v>
+        <v>115096.74077664973</v>
       </c>
       <c r="Y6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>146538.25362182743</v>
+        <v>130567.63461421321</v>
       </c>
       <c r="Z6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>163544.46199576987</v>
+        <v>146538.25362182743</v>
       </c>
       <c r="AA6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>181369.16519373941</v>
+        <v>163544.46199576987</v>
       </c>
       <c r="AB6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>199717.73885702199</v>
+        <v>181369.16519373941</v>
       </c>
       <c r="AC6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>218708.58202115056</v>
+        <v>199717.73885702199</v>
       </c>
       <c r="AD6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>238646.87144500847</v>
+        <v>218708.58202115056</v>
       </c>
       <c r="AE6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>260477.02010406091</v>
+        <v>238646.87144500847</v>
       </c>
       <c r="AF6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>282944.26822081214</v>
+        <v>260477.02010406091</v>
       </c>
       <c r="AG6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>305980.27636548225</v>
+        <v>282944.26822081214</v>
       </c>
       <c r="AH6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>329506.51163874788</v>
+        <v>305980.27636548225</v>
       </c>
       <c r="AI6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <v>329506.51163874788</v>
+      </c>
+      <c r="AJ6" s="47">
+        <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
         <v>353411.18718020304</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="47">
-        <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <f t="shared" si="0"/>
         <v>11922301.929560915</v>
       </c>
       <c r="C7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>14445729.320439087</v>
+        <v>11922301.929560915</v>
       </c>
       <c r="D7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>17027308.304681897</v>
+        <v>14445729.320439087</v>
       </c>
       <c r="E7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>19579105.761323184</v>
+        <v>17027308.304681897</v>
       </c>
       <c r="F7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>22084542.493262269</v>
+        <v>19579105.761323184</v>
       </c>
       <c r="G7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>24483847.324019454</v>
+        <v>22084542.493262269</v>
       </c>
       <c r="H7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(H$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>26945760.337351944</v>
+        <v>24483847.324019454</v>
       </c>
       <c r="I7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(I$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>29464533.973138746</v>
+        <v>26945760.337351944</v>
       </c>
       <c r="J7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(J$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>32087855.918600671</v>
+        <v>29464533.973138746</v>
       </c>
       <c r="K7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(K$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>34853093.915639587</v>
+        <v>32087855.918600671</v>
       </c>
       <c r="L7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(L$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>37726629.513928935</v>
+        <v>34853093.915639587</v>
       </c>
       <c r="M7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(M$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>40731452.953151435</v>
+        <v>37726629.513928935</v>
       </c>
       <c r="N7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>43895712.094573595</v>
+        <v>40731452.953151435</v>
       </c>
       <c r="O7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>47189093.372854486</v>
+        <v>43895712.094573595</v>
       </c>
       <c r="P7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>50644370.241116747</v>
+        <v>47189093.372854486</v>
       </c>
       <c r="Q7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>54249856.671289332</v>
+        <v>50644370.241116747</v>
       </c>
       <c r="R7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>58016412.469996624</v>
+        <v>54249856.671289332</v>
       </c>
       <c r="S7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>61953745.736433156</v>
+        <v>58016412.469996624</v>
       </c>
       <c r="T7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>66050132.891814716</v>
+        <v>61953745.736433156</v>
       </c>
       <c r="U7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>70376128.238684431</v>
+        <v>66050132.891814716</v>
       </c>
       <c r="V7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>74905086.135786802</v>
+        <v>70376128.238684431</v>
       </c>
       <c r="W7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>79656729.490935713</v>
+        <v>74905086.135786802</v>
       </c>
       <c r="X7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>84602009.107973769</v>
+        <v>79656729.490935713</v>
       </c>
       <c r="Y7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>89748141.907254651</v>
+        <v>84602009.107973769</v>
       </c>
       <c r="Z7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>95099440.513959393</v>
+        <v>89748141.907254651</v>
       </c>
       <c r="AA7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>100672754.83819796</v>
+        <v>95099440.513959393</v>
       </c>
       <c r="AB7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>106496389.22377326</v>
+        <v>100672754.83819796</v>
       </c>
       <c r="AC7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>112546258.06366327</v>
+        <v>106496389.22377326</v>
       </c>
       <c r="AD7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>118920907.04314721</v>
+        <v>112546258.06366327</v>
       </c>
       <c r="AE7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>125582292.42015651</v>
+        <v>118920907.04314721</v>
       </c>
       <c r="AF7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>132589664.28722504</v>
+        <v>125582292.42015651</v>
       </c>
       <c r="AG7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>139902137.20124787</v>
+        <v>132589664.28722504</v>
       </c>
       <c r="AH7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
-        <v>147515780.35109982</v>
+        <v>139902137.20124787</v>
       </c>
       <c r="AI7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
+        <v>147515780.35109982</v>
+      </c>
+      <c r="AJ7" s="47">
+        <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
         <v>155443525.35427243</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
       <c r="B8" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="47">
@@ -25866,12 +25939,16 @@
       <c r="AI8" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
       <c r="B9" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="47">
@@ -25973,12 +26050,16 @@
       <c r="AI9" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
       <c r="B10" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="47">
@@ -26080,12 +26161,16 @@
       <c r="AI10" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
       <c r="B11" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="47">
@@ -26187,12 +26272,16 @@
       <c r="AI11" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
       <c r="B12" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="47">
@@ -26294,12 +26383,16 @@
       <c r="AI12" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
       <c r="B13" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="47">
@@ -26401,12 +26494,16 @@
       <c r="AI13" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
       <c r="B14" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="47">
@@ -26508,12 +26605,16 @@
       <c r="AI14" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="47">
@@ -26615,12 +26716,16 @@
       <c r="AI15" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>458</v>
       </c>
       <c r="B16" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="47">
@@ -26722,12 +26827,16 @@
       <c r="AI16" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>459</v>
       </c>
       <c r="B17" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="47">
@@ -26827,6 +26936,9 @@
         <v>0</v>
       </c>
       <c r="AI17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -26836,132 +26948,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>461</v>
       </c>
       <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2020</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2021</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2022</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2023</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2024</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2025</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2026</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2027</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2028</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2029</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2030</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2031</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2032</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2033</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2034</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2035</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2036</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2037</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2038</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2039</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2040</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2041</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2042</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2043</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2044</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2045</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2046</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2047</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2048</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2049</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="47">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="C2" s="47">
@@ -27063,13 +27181,16 @@
       <c r="AI2" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
       <c r="B3" s="47">
-        <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <f t="shared" ref="B3:B17" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="C3" s="47">
@@ -27130,86 +27251,91 @@
       </c>
       <c r="Q3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>0.1445389170896785</v>
+        <v>0</v>
       </c>
       <c r="R3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>0.52069796954314718</v>
+        <v>0.1445389170896785</v>
       </c>
       <c r="S3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>1.475211505922166</v>
+        <v>0.52069796954314718</v>
       </c>
       <c r="T3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>3.558003384094754</v>
+        <v>1.475211505922166</v>
       </c>
       <c r="U3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7.347626903553298</v>
+        <v>3.558003384094754</v>
       </c>
       <c r="V3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>14.145727580372251</v>
+        <v>7.347626903553298</v>
       </c>
       <c r="W3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>26.671307106598981</v>
+        <v>14.145727580372251</v>
       </c>
       <c r="X3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>49.292741116751273</v>
+        <v>26.671307106598981</v>
       </c>
       <c r="Y3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>90.890723350253808</v>
+        <v>49.292741116751273</v>
       </c>
       <c r="Z3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>166.9126269035533</v>
+        <v>90.890723350253808</v>
       </c>
       <c r="AA3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>243.02121404399324</v>
+        <v>166.9126269035533</v>
       </c>
       <c r="AB3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>319.79543570219965</v>
+        <v>243.02121404399324</v>
       </c>
       <c r="AC3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>397.32157783417932</v>
+        <v>319.79543570219965</v>
       </c>
       <c r="AD3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>475.59983925549915</v>
+        <v>397.32157783417932</v>
       </c>
       <c r="AE3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>554.48548223350247</v>
+        <v>475.59983925549915</v>
       </c>
       <c r="AF3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>633.89202199661588</v>
+        <v>554.48548223350247</v>
       </c>
       <c r="AG3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>713.52978426395941</v>
+        <v>633.89202199661588</v>
       </c>
       <c r="AH3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>793.51487732656506</v>
+        <v>713.52978426395941</v>
       </c>
       <c r="AI3" s="47">
         <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <v>793.51487732656506</v>
+      </c>
+      <c r="AJ3" s="47">
+        <f>INDEX('AEO Table 22'!$C$103:$AK$103,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
         <v>873.78904822335028</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="47">
@@ -27311,12 +27437,16 @@
       <c r="AI4" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="47">
@@ -27418,30 +27548,33 @@
       <c r="AI5" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
       <c r="B6" s="47">
-        <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <f t="shared" si="0"/>
         <v>6985.5734179357014</v>
       </c>
       <c r="C6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7124.6208502538066</v>
+        <v>6985.5734179357014</v>
       </c>
       <c r="D6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7267.4187394247037</v>
+        <v>7124.6208502538066</v>
       </c>
       <c r="E6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7393.4318231810494</v>
+        <v>7267.4187394247037</v>
       </c>
       <c r="F6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7502.3350380710654</v>
+        <v>7393.4318231810494</v>
       </c>
       <c r="G6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
@@ -27473,239 +27606,248 @@
       </c>
       <c r="N6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7502.903252961084</v>
+        <v>7502.3350380710654</v>
       </c>
       <c r="O6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7505.0039382402711</v>
+        <v>7502.903252961084</v>
       </c>
       <c r="P6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7512.8179864636204</v>
+        <v>7505.0039382402711</v>
       </c>
       <c r="Q6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>9485.8742089678508</v>
+        <v>7512.8179864636204</v>
       </c>
       <c r="R6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>11968.612428087987</v>
+        <v>9485.8742089678508</v>
       </c>
       <c r="S6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>14810.825296108291</v>
+        <v>11968.612428087987</v>
       </c>
       <c r="T6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>17915.367948392555</v>
+        <v>14810.825296108291</v>
       </c>
       <c r="U6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>21278.083151438241</v>
+        <v>17915.367948392555</v>
       </c>
       <c r="V6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>24844.965439932319</v>
+        <v>21278.083151438241</v>
       </c>
       <c r="W6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>28561.493223350251</v>
+        <v>24844.965439932319</v>
       </c>
       <c r="X6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>32400.627385786804</v>
+        <v>28561.493223350251</v>
       </c>
       <c r="Y6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>36363.76937817259</v>
+        <v>32400.627385786804</v>
       </c>
       <c r="Z6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>40583.895004230115</v>
+        <v>36363.76937817259</v>
       </c>
       <c r="AA6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>45007.131806260571</v>
+        <v>40583.895004230115</v>
       </c>
       <c r="AB6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>49560.368142978004</v>
+        <v>45007.131806260571</v>
       </c>
       <c r="AC6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>54272.984978849403</v>
+        <v>49560.368142978004</v>
       </c>
       <c r="AD6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>59220.712554991544</v>
+        <v>54272.984978849403</v>
       </c>
       <c r="AE6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>64637.908895939087</v>
+        <v>59220.712554991544</v>
       </c>
       <c r="AF6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>70213.202779187806</v>
+        <v>64637.908895939087</v>
       </c>
       <c r="AG6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>75929.635634517763</v>
+        <v>70213.202779187806</v>
       </c>
       <c r="AH6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>81767.719361252108</v>
+        <v>75929.635634517763</v>
       </c>
       <c r="AI6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <v>81767.719361252108</v>
+      </c>
+      <c r="AJ6" s="47">
+        <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
         <v>87699.713819796962</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="47">
-        <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <f t="shared" si="0"/>
         <v>2958543.7734390865</v>
       </c>
       <c r="C7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>3584737.476560914</v>
+        <v>2958543.7734390865</v>
       </c>
       <c r="D7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>4225361.617318105</v>
+        <v>3584737.476560914</v>
       </c>
       <c r="E7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>4858595.4106768193</v>
+        <v>4225361.617318105</v>
       </c>
       <c r="F7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>5480324.6947377324</v>
+        <v>4858595.4106768193</v>
       </c>
       <c r="G7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>6075717.1289805407</v>
+        <v>5480324.6947377324</v>
       </c>
       <c r="H7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(H$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>6686645.9126480538</v>
+        <v>6075717.1289805407</v>
       </c>
       <c r="I7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(I$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7311684.7768612523</v>
+        <v>6686645.9126480538</v>
       </c>
       <c r="J7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(J$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>7962667.5193993216</v>
+        <v>7311684.7768612523</v>
       </c>
       <c r="K7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(K$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>8648867.022360405</v>
+        <v>7962667.5193993216</v>
       </c>
       <c r="L7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(L$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>9361940.7980710678</v>
+        <v>8648867.022360405</v>
       </c>
       <c r="M7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(M$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>10107593.921848562</v>
+        <v>9361940.7980710678</v>
       </c>
       <c r="N7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>10892811.343426395</v>
+        <v>10107593.921848562</v>
       </c>
       <c r="O7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>11710070.689145517</v>
+        <v>10892811.343426395</v>
       </c>
       <c r="P7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>12567504.758883249</v>
+        <v>11710070.689145517</v>
       </c>
       <c r="Q7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>13462213.640710657</v>
+        <v>12567504.758883249</v>
       </c>
       <c r="R7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>14396892.218003385</v>
+        <v>13462213.640710657</v>
       </c>
       <c r="S7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>15373949.575566834</v>
+        <v>14396892.218003385</v>
       </c>
       <c r="T7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>16390476.483185278</v>
+        <v>15373949.575566834</v>
       </c>
       <c r="U7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>17463981.136315566</v>
+        <v>16390476.483185278</v>
       </c>
       <c r="V7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>18587851.364213198</v>
+        <v>17463981.136315566</v>
       </c>
       <c r="W7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>19766981.447064299</v>
+        <v>18587851.364213198</v>
       </c>
       <c r="X7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>20994162.767026227</v>
+        <v>19766981.447064299</v>
       </c>
       <c r="Y7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>22271186.217745345</v>
+        <v>20994162.767026227</v>
       </c>
       <c r="Z7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>23599121.986040607</v>
+        <v>22271186.217745345</v>
       </c>
       <c r="AA7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>24982151.411802031</v>
+        <v>23599121.986040607</v>
       </c>
       <c r="AB7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>26427298.276226733</v>
+        <v>24982151.411802031</v>
       </c>
       <c r="AC7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>27928585.686336718</v>
+        <v>26427298.276226733</v>
       </c>
       <c r="AD7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>29510467.95685279</v>
+        <v>27928585.686336718</v>
       </c>
       <c r="AE7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>31163504.454843484</v>
+        <v>29510467.95685279</v>
       </c>
       <c r="AF7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>32902398.212774958</v>
+        <v>31163504.454843484</v>
       </c>
       <c r="AG7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>34717003.423752114</v>
+        <v>32902398.212774958</v>
       </c>
       <c r="AH7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
-        <v>36606344.648900166</v>
+        <v>34717003.423752114</v>
       </c>
       <c r="AI7" s="47">
         <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
+        <v>36606344.648900166</v>
+      </c>
+      <c r="AJ7" s="47">
+        <f>INDEX('AEO Table 22'!$C$104:$AJ$104,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
         <v>38573630.895727582</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
       <c r="B8" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="47">
@@ -27807,12 +27949,16 @@
       <c r="AI8" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
       <c r="B9" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="47">
@@ -27914,12 +28060,16 @@
       <c r="AI9" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
       <c r="B10" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="47">
@@ -28021,12 +28171,16 @@
       <c r="AI10" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
       <c r="B11" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="47">
@@ -28128,12 +28282,16 @@
       <c r="AI11" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
       <c r="B12" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="47">
@@ -28235,12 +28393,16 @@
       <c r="AI12" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
       <c r="B13" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="47">
@@ -28342,12 +28504,16 @@
       <c r="AI13" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
       <c r="B14" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="47">
@@ -28449,12 +28615,16 @@
       <c r="AI14" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="47">
@@ -28556,12 +28726,16 @@
       <c r="AI15" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>458</v>
       </c>
       <c r="B16" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="47">
@@ -28663,12 +28837,16 @@
       <c r="AI16" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>459</v>
       </c>
       <c r="B17" s="47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="47">
@@ -28768,6 +28946,9 @@
         <v>0</v>
       </c>
       <c r="AI17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -28777,7 +28958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -30754,137 +30935,134 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="12">
+      <c r="C1" s="12">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2020</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2021</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2022</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2023</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2024</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2025</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2026</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2027</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2028</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2029</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2030</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2031</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2032</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2033</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2034</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2035</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2036</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2037</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2038</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2039</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2040</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2041</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2042</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2043</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2044</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2045</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2046</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2047</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2048</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2049</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="47">
-        <v>0</v>
-      </c>
       <c r="C2" s="47">
         <v>0</v>
       </c>
@@ -30984,15 +31162,14 @@
       <c r="AI2" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="47">
-        <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0</v>
-      </c>
       <c r="C3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
         <v>0</v>
@@ -31051,88 +31228,89 @@
       </c>
       <c r="Q3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>2.0029610829103216E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>7.2106598984771574E-4</v>
+        <v>2.0029610829103216E-4</v>
       </c>
       <c r="S3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>2.0430203045685279E-3</v>
+        <v>7.2106598984771574E-4</v>
       </c>
       <c r="T3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>4.9272842639593905E-3</v>
+        <v>2.0430203045685279E-3</v>
       </c>
       <c r="U3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>1.0175042301184432E-2</v>
+        <v>4.9272842639593905E-3</v>
       </c>
       <c r="V3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>1.9588959390862942E-2</v>
+        <v>1.0175042301184432E-2</v>
       </c>
       <c r="W3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>3.693460236886633E-2</v>
+        <v>1.9588959390862942E-2</v>
       </c>
       <c r="X3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>6.8260913705583751E-2</v>
+        <v>3.693460236886633E-2</v>
       </c>
       <c r="Y3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.1258660744500846</v>
+        <v>6.8260913705583751E-2</v>
       </c>
       <c r="Z3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.23114170896785108</v>
+        <v>0.1258660744500846</v>
       </c>
       <c r="AA3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.33653752115059221</v>
+        <v>0.23114170896785108</v>
       </c>
       <c r="AB3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.44285469543147205</v>
+        <v>0.33653752115059221</v>
       </c>
       <c r="AC3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.55021340947546526</v>
+        <v>0.44285469543147205</v>
       </c>
       <c r="AD3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.65861366328257187</v>
+        <v>0.55021340947546526</v>
       </c>
       <c r="AE3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.76785516074450089</v>
+        <v>0.65861366328257187</v>
       </c>
       <c r="AF3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.87781772419627746</v>
+        <v>0.76785516074450089</v>
       </c>
       <c r="AG3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>0.98810076142131986</v>
+        <v>0.87781772419627746</v>
       </c>
       <c r="AH3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>1.0988645093062606</v>
+        <v>0.98810076142131986</v>
       </c>
       <c r="AI3" s="47">
         <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
+        <v>1.0988645093062606</v>
+      </c>
+      <c r="AJ3" s="47">
+        <f>INDEX('AEO Table 22'!$C$98:$AJ$98,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
         <v>1.2100288494077833</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="47">
-        <v>0</v>
-      </c>
       <c r="C4" s="47">
         <v>0</v>
       </c>
@@ -31232,14 +31410,14 @@
       <c r="AI4" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="47">
-        <v>0</v>
-      </c>
       <c r="C5" s="47">
         <v>0</v>
       </c>
@@ -31339,30 +31517,29 @@
       <c r="AI5" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="47">
-        <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>22.021115775803722</v>
-      </c>
       <c r="C6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>22.459403719966158</v>
+        <v>22.021115775803722</v>
       </c>
       <c r="D6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>22.90963171573604</v>
+        <v>22.459403719966158</v>
       </c>
       <c r="E6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>23.30697673181049</v>
+        <v>22.90963171573604</v>
       </c>
       <c r="F6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>23.649884470389171</v>
+        <v>23.30697673181049</v>
       </c>
       <c r="G6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
@@ -31394,241 +31571,242 @@
       </c>
       <c r="N6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>23.652006807952624</v>
+        <v>23.649884470389171</v>
       </c>
       <c r="O6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>23.659858415397629</v>
+        <v>23.652006807952624</v>
       </c>
       <c r="P6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>23.689063190355331</v>
+        <v>23.659858415397629</v>
       </c>
       <c r="Q6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>31.062681598984771</v>
+        <v>23.689063190355331</v>
       </c>
       <c r="R6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>40.341080745346865</v>
+        <v>31.062681598984771</v>
       </c>
       <c r="S6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>50.96282262605753</v>
+        <v>40.341080745346865</v>
       </c>
       <c r="T6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>62.564807251269038</v>
+        <v>50.96282262605753</v>
       </c>
       <c r="U6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>75.131548527072766</v>
+        <v>62.564807251269038</v>
       </c>
       <c r="V6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>88.461099104060906</v>
+        <v>75.131548527072766</v>
       </c>
       <c r="W6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>102.34951428003384</v>
+        <v>88.461099104060906</v>
       </c>
       <c r="X6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>116.69547867512691</v>
+        <v>102.34951428003384</v>
       </c>
       <c r="Y6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>131.50364957445007</v>
+        <v>116.69547867512691</v>
       </c>
       <c r="Z6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>147.27008512690355</v>
+        <v>131.50364957445007</v>
       </c>
       <c r="AA6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>163.79559005160743</v>
+        <v>147.27008512690355</v>
       </c>
       <c r="AB6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>180.80703015989846</v>
+        <v>163.79559005160743</v>
       </c>
       <c r="AC6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>198.41418774873094</v>
+        <v>180.80703015989846</v>
       </c>
       <c r="AD6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>216.90007400846022</v>
+        <v>198.41418774873094</v>
       </c>
       <c r="AE6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>237.14051892470391</v>
+        <v>216.90007400846022</v>
       </c>
       <c r="AF6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>257.97185178172589</v>
+        <v>237.14051892470391</v>
       </c>
       <c r="AG6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>279.33069808967849</v>
+        <v>257.97185178172589</v>
       </c>
       <c r="AH6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>301.14422056937394</v>
+        <v>279.33069808967849</v>
       </c>
       <c r="AI6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
+        <v>301.14422056937394</v>
+      </c>
+      <c r="AJ6" s="47">
+        <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
         <v>323.30879963451775</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="47">
-        <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>8488.0201626632825</v>
-      </c>
       <c r="C7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(C$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>10312.835852652284</v>
+        <v>8488.0201626632825</v>
       </c>
       <c r="D7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(D$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>12164.434105515227</v>
+        <v>10312.835852652284</v>
       </c>
       <c r="E7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(E$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>13989.168424809644</v>
+        <v>12164.434105515227</v>
       </c>
       <c r="F7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(F$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>15780.663761965312</v>
+        <v>13989.168424809644</v>
       </c>
       <c r="G7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(G$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>17501.285572652283</v>
+        <v>15780.663761965312</v>
       </c>
       <c r="H7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(H$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>19260.927568935702</v>
+        <v>17501.285572652283</v>
       </c>
       <c r="I7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(I$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>21055.546273930624</v>
+        <v>19260.927568935702</v>
       </c>
       <c r="J7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(J$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>22916.068656604908</v>
+        <v>21055.546273930624</v>
       </c>
       <c r="K7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(K$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>24866.833825945854</v>
+        <v>22916.068656604908</v>
       </c>
       <c r="L7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(L$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>26885.427393582067</v>
+        <v>24866.833825945854</v>
       </c>
       <c r="M7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(M$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>28986.521051849406</v>
+        <v>26885.427393582067</v>
       </c>
       <c r="N7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(N$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>31188.332355118444</v>
+        <v>28986.521051849406</v>
       </c>
       <c r="O7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(O$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>33470.875509336714</v>
+        <v>31188.332355118444</v>
       </c>
       <c r="P7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(P$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>35855.237937152284</v>
+        <v>33470.875509336714</v>
       </c>
       <c r="Q7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(Q$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>38333.820907360408</v>
+        <v>35855.237937152284</v>
       </c>
       <c r="R7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(R$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>40916.007039582058</v>
+        <v>38333.820907360408</v>
       </c>
       <c r="S7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(S$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>43607.714457291033</v>
+        <v>40916.007039582058</v>
       </c>
       <c r="T7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(T$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>46401.485260681045</v>
+        <v>43607.714457291033</v>
       </c>
       <c r="U7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(U$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>49342.677129199663</v>
+        <v>46401.485260681045</v>
       </c>
       <c r="V7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(V$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>52413.980099015222</v>
+        <v>49342.677129199663</v>
       </c>
       <c r="W7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(W$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>55627.850081958546</v>
+        <v>52413.980099015222</v>
       </c>
       <c r="X7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(X$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>58965.459245452621</v>
+        <v>55627.850081958546</v>
       </c>
       <c r="Y7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(Y$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>62430.919918570216</v>
+        <v>58965.459245452621</v>
       </c>
       <c r="Z7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(Z$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>66027.61209813875</v>
+        <v>62430.919918570216</v>
       </c>
       <c r="AA7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AA$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>69765.938663282577</v>
+        <v>66027.61209813875</v>
       </c>
       <c r="AB7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AB$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>73663.663375105752</v>
+        <v>69765.938663282577</v>
       </c>
       <c r="AC7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AC$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>77704.549730329949</v>
+        <v>73663.663375105752</v>
       </c>
       <c r="AD7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AD$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>81952.75507614213</v>
+        <v>77704.549730329949</v>
       </c>
       <c r="AE7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AE$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>86383.736879622666</v>
+        <v>81952.75507614213</v>
       </c>
       <c r="AF7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AF$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>91035.901921138749</v>
+        <v>86383.736879622666</v>
       </c>
       <c r="AG7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AG$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>95882.45433414889</v>
+        <v>91035.901921138749</v>
       </c>
       <c r="AH7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AH$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
-        <v>100920.20816148477</v>
+        <v>95882.45433414889</v>
       </c>
       <c r="AI7" s="47">
         <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AI$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
+        <v>100920.20816148477</v>
+      </c>
+      <c r="AJ7" s="47">
+        <f>INDEX('AEO Table 22'!$C$99:$AJ$99,MATCH(AJ$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
         <v>106158.289392978</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="47">
-        <v>0</v>
-      </c>
       <c r="C8" s="47">
         <v>0</v>
       </c>
@@ -31728,14 +31906,14 @@
       <c r="AI8" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="47">
-        <v>0</v>
-      </c>
       <c r="C9" s="47">
         <v>0</v>
       </c>
@@ -31835,14 +32013,14 @@
       <c r="AI9" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="47">
-        <v>0</v>
-      </c>
       <c r="C10" s="47">
         <v>0</v>
       </c>
@@ -31942,14 +32120,14 @@
       <c r="AI10" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="47">
-        <v>0</v>
-      </c>
       <c r="C11" s="47">
         <v>0</v>
       </c>
@@ -32049,14 +32227,14 @@
       <c r="AI11" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="47">
-        <v>0</v>
-      </c>
       <c r="C12" s="47">
         <v>0</v>
       </c>
@@ -32156,14 +32334,14 @@
       <c r="AI12" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="47">
-        <v>0</v>
-      </c>
       <c r="C13" s="47">
         <v>0</v>
       </c>
@@ -32263,14 +32441,14 @@
       <c r="AI13" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="47">
-        <v>0</v>
-      </c>
       <c r="C14" s="47">
         <v>0</v>
       </c>
@@ -32370,14 +32548,14 @@
       <c r="AI14" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>457</v>
       </c>
-      <c r="B15" s="47">
-        <v>0</v>
-      </c>
       <c r="C15" s="47">
         <v>0</v>
       </c>
@@ -32477,14 +32655,14 @@
       <c r="AI15" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="47">
-        <v>0</v>
-      </c>
       <c r="C16" s="47">
         <v>0</v>
       </c>
@@ -32584,14 +32762,14 @@
       <c r="AI16" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>459</v>
       </c>
-      <c r="B17" s="47">
-        <v>0</v>
-      </c>
       <c r="C17" s="47">
         <v>0</v>
       </c>
@@ -32689,6 +32867,9 @@
         <v>0</v>
       </c>
       <c r="AI17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -32698,7 +32879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -34893,13 +35074,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0093E062-C91C-4BB2-A3F2-B5620F6C017B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0093E062-C91C-4BB2-A3F2-B5620F6C017B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBEDAC4-CA5A-40D0-A253-DA021C8632FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBEDAC4-CA5A-40D0-A253-DA021C8632FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AF1242-8095-44E8-85AE-E12EECA293D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AF1242-8095-44E8-85AE-E12EECA293D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>